--- a/boot/src/main/resources/xlsx/tarifarios/tarifarioAdquirente.xlsx
+++ b/boot/src/main/resources/xlsx/tarifarios/tarifarioAdquirente.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CE2C8EE3-5034-4693-90B8-1D3DD0308F5C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="14895" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="14895" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K21"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>&lt;jx:forEach items="${mantenimiento}" var="item" &gt;</t>
   </si>
@@ -89,28 +87,28 @@
     <t>${item.rangoInicial} - ${item.rangoFinal}</t>
   </si>
   <si>
-    <t>${item.idMoneda} - ${descripcionMoneda}</t>
-  </si>
-  <si>
     <t>${item.tarifaFlat}</t>
   </si>
   <si>
     <t>${item.tarifaPorcentual}</t>
   </si>
   <si>
-    <t>${item.aplicaIGV}</t>
-  </si>
-  <si>
     <t>REPORTE DE TARIFARIO ADQUIRENTE</t>
   </si>
   <si>
-    <t>${item.idTarifarioAdquirente}</t>
+    <t>${item.idMoneda} - ${item.descripcionMoneda}</t>
+  </si>
+  <si>
+    <t>${item.aplicaIGV == true ? 'SI': 'NO'}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -233,32 +231,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -287,7 +263,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -299,7 +275,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -320,9 +295,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -331,37 +303,26 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,7 +357,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -488,23 +449,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -540,23 +484,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,284 +659,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:X18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D4" sqref="D4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
     <col min="5" max="5" width="48.85546875" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="42.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="34.5703125" customWidth="1"/>
+    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" customWidth="1"/>
     <col min="11" max="11" width="18.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
-    <col min="13" max="13" width="64.5703125" customWidth="1"/>
+    <col min="12" max="12" width="64.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-    </row>
-    <row r="2" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-    </row>
-    <row r="3" spans="3:24" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="32" t="s">
+    <row r="1" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="3:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="12"/>
-    </row>
-    <row r="4" spans="3:24" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="29" t="s">
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="3:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="12"/>
-    </row>
-    <row r="5" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
+      <c r="D5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="28"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="10"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-    </row>
-    <row r="7" spans="3:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="3:21" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1"/>
       <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>6</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="9"/>
-    </row>
-    <row r="8" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="3"/>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-    </row>
-    <row r="9" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="17"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="4"/>
-      <c r="D9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="H9" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
-    </row>
-    <row r="10" spans="3:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+    </row>
+    <row r="10" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="4"/>
       <c r="D10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-    </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="6:24" x14ac:dyDescent="0.25">
-      <c r="F18" s="9"/>
-      <c r="G18" s="9" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+    </row>
+    <row r="12" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+    </row>
+    <row r="13" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+    </row>
+    <row r="14" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+    </row>
+    <row r="15" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+    </row>
+    <row r="16" spans="3:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D5:L6"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D5:K6"/>
+    <mergeCell ref="D4:K4"/>
+    <mergeCell ref="D3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/boot/src/main/resources/xlsx/tarifarios/tarifarioAdquirente.xlsx
+++ b/boot/src/main/resources/xlsx/tarifarios/tarifarioAdquirente.xlsx
@@ -299,9 +299,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -327,6 +324,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -663,7 +663,7 @@
   <dimension ref="C1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:K4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,58 +693,58 @@
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="3:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
       <c r="L3" s="12"/>
       <c r="M3" s="11"/>
     </row>
     <row r="4" spans="3:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
     <row r="5" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
       <c r="L5" s="10"/>
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="3:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
       <c r="L6" s="10"/>
       <c r="M6" s="11"/>
     </row>
@@ -816,22 +816,22 @@
       <c r="E9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="19" t="s">
         <v>21</v>
       </c>
       <c r="L9" s="8"/>
